--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Gnai2-Tbxa2r.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Gnai2-Tbxa2r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>162.399297</v>
+        <v>201.4397426666667</v>
       </c>
       <c r="H2">
-        <v>487.197891</v>
+        <v>604.3192280000001</v>
       </c>
       <c r="I2">
-        <v>0.3910371682630009</v>
+        <v>0.4833500233086392</v>
       </c>
       <c r="J2">
-        <v>0.3910371682630009</v>
+        <v>0.4833500233086393</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.333203333333333</v>
+        <v>2.999957666666667</v>
       </c>
       <c r="N2">
-        <v>3.99961</v>
+        <v>8.999873000000001</v>
       </c>
       <c r="O2">
-        <v>0.3368822850527768</v>
+        <v>0.5075658552021639</v>
       </c>
       <c r="P2">
-        <v>0.3368822850527769</v>
+        <v>0.5075658552021638</v>
       </c>
       <c r="Q2">
-        <v>216.51128409139</v>
+        <v>604.3107003842273</v>
       </c>
       <c r="R2">
-        <v>1948.60155682251</v>
+        <v>5438.796303458045</v>
       </c>
       <c r="S2">
-        <v>0.131733494785007</v>
+        <v>0.2453319679426353</v>
       </c>
       <c r="T2">
-        <v>0.131733494785007</v>
+        <v>0.2453319679426353</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>162.399297</v>
+        <v>201.4397426666667</v>
       </c>
       <c r="H3">
-        <v>487.197891</v>
+        <v>604.3192280000001</v>
       </c>
       <c r="I3">
-        <v>0.3910371682630009</v>
+        <v>0.4833500233086392</v>
       </c>
       <c r="J3">
-        <v>0.3910371682630009</v>
+        <v>0.4833500233086393</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>6.911426000000001</v>
       </c>
       <c r="O3">
-        <v>0.5821410047112527</v>
+        <v>0.389783705654121</v>
       </c>
       <c r="P3">
-        <v>0.5821410047112529</v>
+        <v>0.3897837056541209</v>
       </c>
       <c r="Q3">
-        <v>374.136907889174</v>
+        <v>464.0786249665699</v>
       </c>
       <c r="R3">
-        <v>3367.232171002566</v>
+        <v>4176.707624699129</v>
       </c>
       <c r="S3">
-        <v>0.2276387700120666</v>
+        <v>0.1884019632132471</v>
       </c>
       <c r="T3">
-        <v>0.2276387700120666</v>
+        <v>0.1884019632132471</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>162.399297</v>
+        <v>201.4397426666667</v>
       </c>
       <c r="H4">
-        <v>487.197891</v>
+        <v>604.3192280000001</v>
       </c>
       <c r="I4">
-        <v>0.3910371682630009</v>
+        <v>0.4833500233086392</v>
       </c>
       <c r="J4">
-        <v>0.3910371682630009</v>
+        <v>0.4833500233086393</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -679,33 +679,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.3204633333333333</v>
+        <v>0.448687</v>
       </c>
       <c r="N4">
-        <v>0.96139</v>
+        <v>1.346061</v>
       </c>
       <c r="O4">
-        <v>0.08097671023597029</v>
+        <v>0.07591380485249957</v>
       </c>
       <c r="P4">
-        <v>0.08097671023597031</v>
+        <v>0.07591380485249956</v>
       </c>
       <c r="Q4">
-        <v>52.04302004760999</v>
+        <v>90.38339381787868</v>
       </c>
       <c r="R4">
-        <v>468.38718042849</v>
+        <v>813.4505443609081</v>
       </c>
       <c r="S4">
-        <v>0.03166490346592739</v>
+        <v>0.03669293934490316</v>
       </c>
       <c r="T4">
-        <v>0.03166490346592739</v>
+        <v>0.03669293934490316</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>65.41736466666667</v>
+        <v>201.4397426666667</v>
       </c>
       <c r="H5">
-        <v>196.252094</v>
+        <v>604.3192280000001</v>
       </c>
       <c r="I5">
-        <v>0.1575168212364948</v>
+        <v>0.4833500233086392</v>
       </c>
       <c r="J5">
-        <v>0.1575168212364948</v>
+        <v>0.4833500233086393</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -741,28 +741,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>1.333203333333333</v>
+        <v>0.1580263333333334</v>
       </c>
       <c r="N5">
-        <v>3.99961</v>
+        <v>0.474079</v>
       </c>
       <c r="O5">
-        <v>0.3368822850527768</v>
+        <v>0.02673663429121574</v>
       </c>
       <c r="P5">
-        <v>0.3368822850527769</v>
+        <v>0.02673663429121573</v>
       </c>
       <c r="Q5">
-        <v>87.21464863148222</v>
+        <v>31.83278392122356</v>
       </c>
       <c r="R5">
-        <v>784.9318376833399</v>
+        <v>286.495055291012</v>
       </c>
       <c r="S5">
-        <v>0.05306462667240014</v>
+        <v>0.01292315280785369</v>
       </c>
       <c r="T5">
-        <v>0.05306462667240015</v>
+        <v>0.01292315280785369</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,10 +791,10 @@
         <v>196.252094</v>
       </c>
       <c r="I6">
-        <v>0.1575168212364948</v>
+        <v>0.1569674599353791</v>
       </c>
       <c r="J6">
-        <v>0.1575168212364948</v>
+        <v>0.1569674599353792</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.303808666666667</v>
+        <v>2.999957666666667</v>
       </c>
       <c r="N6">
-        <v>6.911426000000001</v>
+        <v>8.999873000000001</v>
       </c>
       <c r="O6">
-        <v>0.5821410047112527</v>
+        <v>0.5075658552021639</v>
       </c>
       <c r="P6">
-        <v>0.5821410047112529</v>
+        <v>0.5075658552021638</v>
       </c>
       <c r="Q6">
-        <v>150.7090916695605</v>
+        <v>196.2493246648958</v>
       </c>
       <c r="R6">
-        <v>1356.381825026044</v>
+        <v>1766.243921984062</v>
       </c>
       <c r="S6">
-        <v>0.09169700057353589</v>
+        <v>0.07967132304101211</v>
       </c>
       <c r="T6">
-        <v>0.09169700057353591</v>
+        <v>0.07967132304101211</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,45 +853,45 @@
         <v>196.252094</v>
       </c>
       <c r="I7">
-        <v>0.1575168212364948</v>
+        <v>0.1569674599353791</v>
       </c>
       <c r="J7">
-        <v>0.1575168212364948</v>
+        <v>0.1569674599353792</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.3204633333333333</v>
+        <v>2.303808666666667</v>
       </c>
       <c r="N7">
-        <v>0.96139</v>
+        <v>6.911426000000001</v>
       </c>
       <c r="O7">
-        <v>0.08097671023597029</v>
+        <v>0.389783705654121</v>
       </c>
       <c r="P7">
-        <v>0.08097671023597031</v>
+        <v>0.3897837056541209</v>
       </c>
       <c r="Q7">
-        <v>20.96386673896222</v>
+        <v>150.7090916695605</v>
       </c>
       <c r="R7">
-        <v>188.67480065066</v>
+        <v>1356.381825026044</v>
       </c>
       <c r="S7">
-        <v>0.01275519399055877</v>
+        <v>0.06118335820072685</v>
       </c>
       <c r="T7">
-        <v>0.01275519399055878</v>
+        <v>0.06118335820072685</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,7 +900,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>61.180387</v>
+        <v>65.41736466666667</v>
       </c>
       <c r="H8">
-        <v>183.541161</v>
+        <v>196.252094</v>
       </c>
       <c r="I8">
-        <v>0.1473147096548978</v>
+        <v>0.1569674599353791</v>
       </c>
       <c r="J8">
-        <v>0.1473147096548978</v>
+        <v>0.1569674599353792</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -927,33 +927,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>1.333203333333333</v>
+        <v>0.448687</v>
       </c>
       <c r="N8">
-        <v>3.99961</v>
+        <v>1.346061</v>
       </c>
       <c r="O8">
-        <v>0.3368822850527768</v>
+        <v>0.07591380485249957</v>
       </c>
       <c r="P8">
-        <v>0.3368822850527769</v>
+        <v>0.07591380485249956</v>
       </c>
       <c r="Q8">
-        <v>81.56589588302333</v>
+        <v>29.35192110019267</v>
       </c>
       <c r="R8">
-        <v>734.0930629472099</v>
+        <v>264.167289901734</v>
       </c>
       <c r="S8">
-        <v>0.04962771601042833</v>
+        <v>0.01191599712172692</v>
       </c>
       <c r="T8">
-        <v>0.04962771601042835</v>
+        <v>0.01191599712172692</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,7 +962,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>61.180387</v>
+        <v>65.41736466666667</v>
       </c>
       <c r="H9">
-        <v>183.541161</v>
+        <v>196.252094</v>
       </c>
       <c r="I9">
-        <v>0.1473147096548978</v>
+        <v>0.1569674599353791</v>
       </c>
       <c r="J9">
-        <v>0.1473147096548978</v>
+        <v>0.1569674599353792</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>2.303808666666667</v>
+        <v>0.1580263333333334</v>
       </c>
       <c r="N9">
-        <v>6.911426000000001</v>
+        <v>0.474079</v>
       </c>
       <c r="O9">
-        <v>0.5821410047112527</v>
+        <v>0.02673663429121574</v>
       </c>
       <c r="P9">
-        <v>0.5821410047112529</v>
+        <v>0.02673663429121573</v>
       </c>
       <c r="Q9">
-        <v>140.9479058006207</v>
+        <v>10.33766627460289</v>
       </c>
       <c r="R9">
-        <v>1268.531152205586</v>
+        <v>93.038996471426</v>
       </c>
       <c r="S9">
-        <v>0.08575793308724869</v>
+        <v>0.00419678157191329</v>
       </c>
       <c r="T9">
-        <v>0.08575793308724872</v>
+        <v>0.00419678157191329</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,7 +1024,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1033,51 +1033,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>61.180387</v>
+        <v>60.43484133333334</v>
       </c>
       <c r="H10">
-        <v>183.541161</v>
+        <v>181.304524</v>
       </c>
       <c r="I10">
-        <v>0.1473147096548978</v>
+        <v>0.1450120099461104</v>
       </c>
       <c r="J10">
-        <v>0.1473147096548978</v>
+        <v>0.1450120099461104</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.3204633333333333</v>
+        <v>2.999957666666667</v>
       </c>
       <c r="N10">
-        <v>0.96139</v>
+        <v>8.999873000000001</v>
       </c>
       <c r="O10">
-        <v>0.08097671023597029</v>
+        <v>0.5075658552021639</v>
       </c>
       <c r="P10">
-        <v>0.08097671023597031</v>
+        <v>0.5075658552021638</v>
       </c>
       <c r="Q10">
-        <v>19.60607075264333</v>
+        <v>181.3019655917169</v>
       </c>
       <c r="R10">
-        <v>176.45463677379</v>
+        <v>1631.717690325452</v>
       </c>
       <c r="S10">
-        <v>0.01192906055722075</v>
+        <v>0.0736031448428822</v>
       </c>
       <c r="T10">
-        <v>0.01192906055722076</v>
+        <v>0.0736031448428822</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,7 +1086,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1095,51 +1095,51 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>126.3069433333333</v>
+        <v>60.43484133333334</v>
       </c>
       <c r="H11">
-        <v>378.92083</v>
+        <v>181.304524</v>
       </c>
       <c r="I11">
-        <v>0.3041313008456065</v>
+        <v>0.1450120099461104</v>
       </c>
       <c r="J11">
-        <v>0.3041313008456065</v>
+        <v>0.1450120099461104</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>1.333203333333333</v>
+        <v>2.303808666666667</v>
       </c>
       <c r="N11">
-        <v>3.99961</v>
+        <v>6.911426000000001</v>
       </c>
       <c r="O11">
-        <v>0.3368822850527768</v>
+        <v>0.389783705654121</v>
       </c>
       <c r="P11">
-        <v>0.3368822850527769</v>
+        <v>0.3897837056541209</v>
       </c>
       <c r="Q11">
-        <v>168.3928378751444</v>
+        <v>139.2303112323582</v>
       </c>
       <c r="R11">
-        <v>1515.5355408763</v>
+        <v>1253.072801091224</v>
       </c>
       <c r="S11">
-        <v>0.1024564475849414</v>
+        <v>0.05652331860114714</v>
       </c>
       <c r="T11">
-        <v>0.1024564475849415</v>
+        <v>0.05652331860114714</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1148,7 +1148,7 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1157,51 +1157,51 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>126.3069433333333</v>
+        <v>60.43484133333334</v>
       </c>
       <c r="H12">
-        <v>378.92083</v>
+        <v>181.304524</v>
       </c>
       <c r="I12">
-        <v>0.3041313008456065</v>
+        <v>0.1450120099461104</v>
       </c>
       <c r="J12">
-        <v>0.3041313008456065</v>
+        <v>0.1450120099461104</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>2.303808666666667</v>
+        <v>0.448687</v>
       </c>
       <c r="N12">
-        <v>6.911426000000001</v>
+        <v>1.346061</v>
       </c>
       <c r="O12">
-        <v>0.5821410047112527</v>
+        <v>0.07591380485249957</v>
       </c>
       <c r="P12">
-        <v>0.5821410047112529</v>
+        <v>0.07591380485249956</v>
       </c>
       <c r="Q12">
-        <v>290.9870307115089</v>
+        <v>27.11632765332934</v>
       </c>
       <c r="R12">
-        <v>2618.883276403581</v>
+        <v>244.046948879964</v>
       </c>
       <c r="S12">
-        <v>0.1770473010384016</v>
+        <v>0.01100841342431775</v>
       </c>
       <c r="T12">
-        <v>0.1770473010384017</v>
+        <v>0.01100841342431775</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1210,7 +1210,7 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>126.3069433333333</v>
+        <v>60.43484133333334</v>
       </c>
       <c r="H13">
-        <v>378.92083</v>
+        <v>181.304524</v>
       </c>
       <c r="I13">
-        <v>0.3041313008456065</v>
+        <v>0.1450120099461104</v>
       </c>
       <c r="J13">
-        <v>0.3041313008456065</v>
+        <v>0.1450120099461104</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1237,28 +1237,276 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.3204633333333333</v>
+        <v>0.1580263333333334</v>
       </c>
       <c r="N13">
-        <v>0.96139</v>
+        <v>0.474079</v>
       </c>
       <c r="O13">
-        <v>0.08097671023597029</v>
+        <v>0.02673663429121574</v>
       </c>
       <c r="P13">
-        <v>0.08097671023597031</v>
+        <v>0.02673663429121573</v>
       </c>
       <c r="Q13">
-        <v>40.47674408374444</v>
+        <v>9.550296381488446</v>
       </c>
       <c r="R13">
-        <v>364.2906967537</v>
+        <v>85.95266743339602</v>
       </c>
       <c r="S13">
-        <v>0.02462755222226338</v>
+        <v>0.003877133077763292</v>
       </c>
       <c r="T13">
-        <v>0.02462755222226339</v>
+        <v>0.003877133077763292</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>89.46554166666668</v>
+      </c>
+      <c r="H14">
+        <v>268.396625</v>
+      </c>
+      <c r="I14">
+        <v>0.2146705068098712</v>
+      </c>
+      <c r="J14">
+        <v>0.2146705068098712</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>2.999957666666667</v>
+      </c>
+      <c r="N14">
+        <v>8.999873000000001</v>
+      </c>
+      <c r="O14">
+        <v>0.5075658552021639</v>
+      </c>
+      <c r="P14">
+        <v>0.5075658552021638</v>
+      </c>
+      <c r="Q14">
+        <v>268.3928376254028</v>
+      </c>
+      <c r="R14">
+        <v>2415.535538628626</v>
+      </c>
+      <c r="S14">
+        <v>0.1089594193756342</v>
+      </c>
+      <c r="T14">
+        <v>0.1089594193756342</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>89.46554166666668</v>
+      </c>
+      <c r="H15">
+        <v>268.396625</v>
+      </c>
+      <c r="I15">
+        <v>0.2146705068098712</v>
+      </c>
+      <c r="J15">
+        <v>0.2146705068098712</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>2.303808666666667</v>
+      </c>
+      <c r="N15">
+        <v>6.911426000000001</v>
+      </c>
+      <c r="O15">
+        <v>0.389783705654121</v>
+      </c>
+      <c r="P15">
+        <v>0.3897837056541209</v>
+      </c>
+      <c r="Q15">
+        <v>206.1114902596945</v>
+      </c>
+      <c r="R15">
+        <v>1855.00341233725</v>
+      </c>
+      <c r="S15">
+        <v>0.0836750656389998</v>
+      </c>
+      <c r="T15">
+        <v>0.0836750656389998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>89.46554166666668</v>
+      </c>
+      <c r="H16">
+        <v>268.396625</v>
+      </c>
+      <c r="I16">
+        <v>0.2146705068098712</v>
+      </c>
+      <c r="J16">
+        <v>0.2146705068098712</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.448687</v>
+      </c>
+      <c r="N16">
+        <v>1.346061</v>
+      </c>
+      <c r="O16">
+        <v>0.07591380485249957</v>
+      </c>
+      <c r="P16">
+        <v>0.07591380485249956</v>
+      </c>
+      <c r="Q16">
+        <v>40.14202549379167</v>
+      </c>
+      <c r="R16">
+        <v>361.278229444125</v>
+      </c>
+      <c r="S16">
+        <v>0.01629645496155174</v>
+      </c>
+      <c r="T16">
+        <v>0.01629645496155174</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>89.46554166666668</v>
+      </c>
+      <c r="H17">
+        <v>268.396625</v>
+      </c>
+      <c r="I17">
+        <v>0.2146705068098712</v>
+      </c>
+      <c r="J17">
+        <v>0.2146705068098712</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.1580263333333334</v>
+      </c>
+      <c r="N17">
+        <v>0.474079</v>
+      </c>
+      <c r="O17">
+        <v>0.02673663429121574</v>
+      </c>
+      <c r="P17">
+        <v>0.02673663429121573</v>
+      </c>
+      <c r="Q17">
+        <v>14.13791150926389</v>
+      </c>
+      <c r="R17">
+        <v>127.241203583375</v>
+      </c>
+      <c r="S17">
+        <v>0.005739566833685464</v>
+      </c>
+      <c r="T17">
+        <v>0.005739566833685463</v>
       </c>
     </row>
   </sheetData>
